--- a/biology/Médecine/Oligurie/Oligurie.xlsx
+++ b/biology/Médecine/Oligurie/Oligurie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'oligurie est une raréfaction du volume des urines chez un individu. L'absence quasi complète des urines étant une anurie. On utilise aussi le terme oligo-anurie car ce qui cause une oligurie peut causer une anurie, une oligurie peut devenir une anurie.
 </t>
@@ -511,7 +523,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'oligurie se définit[réf. nécessaire] par une quantité d'urine inférieure à
 500 ml/jour ou &lt; 0,5 ml/kg/h chez l'adulte ou l'enfant
@@ -545,7 +559,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les causes d'oligurie sont les mêmes que celle de l'anurie. L'oligurie n'étant que le stade précédant l'arrêt complet de fabrication de l'urine par les reins :
 le syndrome néphrotique dont l'oligurie est un élément diagnostique.
